--- a/timesheets/individual/202412011_Bhavya_Patel.xlsx
+++ b/timesheets/individual/202412011_Bhavya_Patel.xlsx
@@ -136,7 +136,7 @@
     <t>Person responsible:</t>
   </si>
   <si>
-    <t>Bhavya Patel</t>
+    <t>Bhavya Manish Patel</t>
   </si>
   <si>
     <t>Title/Designation:</t>
@@ -8648,7 +8648,7 @@
     <row r="15" ht="24.75" customHeight="1">
       <c r="A15" s="17" t="str">
         <f>H9</f>
-        <v>Bhavya Patel</v>
+        <v>Bhavya Manish Patel</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="19" t="str">
@@ -9060,7 +9060,7 @@
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="8" t="str">
         <f t="shared" ref="A29:A30" si="1">H9</f>
-        <v>Bhavya Patel</v>
+        <v>Bhavya Manish Patel</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="H1" s="63" t="str">
         <f>Overview!H9</f>
-        <v>Bhavya Patel</v>
+        <v>Bhavya Manish Patel</v>
       </c>
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
@@ -15939,7 +15939,7 @@
       </c>
       <c r="H1" s="63" t="str">
         <f>Overview!H9</f>
-        <v>Bhavya Patel</v>
+        <v>Bhavya Manish Patel</v>
       </c>
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
@@ -17778,7 +17778,7 @@
       </c>
       <c r="H1" s="63" t="str">
         <f>Overview!H9</f>
-        <v>Bhavya Patel</v>
+        <v>Bhavya Manish Patel</v>
       </c>
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
@@ -19601,7 +19601,7 @@
       </c>
       <c r="H1" s="63" t="str">
         <f>Overview!H9</f>
-        <v>Bhavya Patel</v>
+        <v>Bhavya Manish Patel</v>
       </c>
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
@@ -21440,7 +21440,7 @@
       </c>
       <c r="H1" s="63" t="str">
         <f>Overview!H9</f>
-        <v>Bhavya Patel</v>
+        <v>Bhavya Manish Patel</v>
       </c>
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
